--- a/natmiOut/OldD7/LR-pairs_lrc2p/H2-M3-Klrd1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/H2-M3-Klrd1.xlsx
@@ -531,34 +531,34 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.82634529715887</v>
+        <v>2.943703</v>
       </c>
       <c r="H2">
-        <v>2.82634529715887</v>
+        <v>8.831109</v>
       </c>
       <c r="I2">
-        <v>0.2055848621228254</v>
+        <v>0.1934541878053996</v>
       </c>
       <c r="J2">
-        <v>0.2055848621228254</v>
+        <v>0.1934541878053996</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.29881501874652</v>
+        <v>2.761807333333334</v>
       </c>
       <c r="N2">
-        <v>2.29881501874652</v>
+        <v>8.285422000000001</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>6.497245017272406</v>
+        <v>8.129940532555333</v>
       </c>
       <c r="R2">
-        <v>6.497245017272406</v>
+        <v>73.169464792998</v>
       </c>
       <c r="S2">
-        <v>0.2055848621228254</v>
+        <v>0.1934541878053996</v>
       </c>
       <c r="T2">
-        <v>0.2055848621228254</v>
+        <v>0.1934541878053996</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,34 +593,34 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.33378541652585</v>
+        <v>2.508890333333333</v>
       </c>
       <c r="H3">
-        <v>2.33378541652585</v>
+        <v>7.526671</v>
       </c>
       <c r="I3">
-        <v>0.1697566654587564</v>
+        <v>0.1648791816728176</v>
       </c>
       <c r="J3">
-        <v>0.1697566654587564</v>
+        <v>0.1648791816728177</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.29881501874652</v>
+        <v>2.761807333333334</v>
       </c>
       <c r="N3">
-        <v>2.29881501874652</v>
+        <v>8.285422000000001</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>5.364940966041227</v>
+        <v>6.929071721129112</v>
       </c>
       <c r="R3">
-        <v>5.364940966041227</v>
+        <v>62.361645490162</v>
       </c>
       <c r="S3">
-        <v>0.1697566654587564</v>
+        <v>0.1648791816728176</v>
       </c>
       <c r="T3">
-        <v>0.1697566654587564</v>
+        <v>0.1648791816728177</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,34 +655,34 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.09996993665963</v>
+        <v>8.980481333333334</v>
       </c>
       <c r="H4">
-        <v>8.09996993665963</v>
+        <v>26.941444</v>
       </c>
       <c r="I4">
-        <v>0.5891817975323621</v>
+        <v>0.5901790100569088</v>
       </c>
       <c r="J4">
-        <v>0.5891817975323621</v>
+        <v>0.5901790100569088</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.29881501874652</v>
+        <v>2.761807333333334</v>
       </c>
       <c r="N4">
-        <v>2.29881501874652</v>
+        <v>8.285422000000001</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>18.62033254178846</v>
+        <v>24.80235920326311</v>
       </c>
       <c r="R4">
-        <v>18.62033254178846</v>
+        <v>223.221232829368</v>
       </c>
       <c r="S4">
-        <v>0.5891817975323621</v>
+        <v>0.5901790100569088</v>
       </c>
       <c r="T4">
-        <v>0.5891817975323621</v>
+        <v>0.5901790100569088</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,34 +717,34 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.487727219736314</v>
+        <v>0.7834633333333333</v>
       </c>
       <c r="H5">
-        <v>0.487727219736314</v>
+        <v>2.35039</v>
       </c>
       <c r="I5">
-        <v>0.03547667488605619</v>
+        <v>0.05148762046487403</v>
       </c>
       <c r="J5">
-        <v>0.03547667488605619</v>
+        <v>0.05148762046487404</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.29881501874652</v>
+        <v>2.761807333333334</v>
       </c>
       <c r="N5">
-        <v>2.29881501874652</v>
+        <v>8.285422000000001</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>1.121194657781323</v>
+        <v>2.163774779397778</v>
       </c>
       <c r="R5">
-        <v>1.121194657781323</v>
+        <v>19.47397301458</v>
       </c>
       <c r="S5">
-        <v>0.03547667488605619</v>
+        <v>0.05148762046487403</v>
       </c>
       <c r="T5">
-        <v>0.03547667488605619</v>
+        <v>0.05148762046487404</v>
       </c>
     </row>
   </sheetData>
